--- a/biology/Botanique/Éditions_Féret/Éditions_Féret.xlsx
+++ b/biology/Botanique/Éditions_Féret/Éditions_Féret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ditions_F%C3%A9ret</t>
+          <t>Éditions_Féret</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Féret est une maison d'édition créée en 1812 à Bordeaux par Jean-Baptiste Féret. Il s'agit de l'une des plus anciennes maisons d'édition française toujours en exercice (seules les Éditions Belin de 1777 seraient plus anciennes)[1]. L'ouvrage le plus connu reste le guide Bordeaux et ses vins, autrement appelé Le Féret ou Le Guide Féret.
+Féret est une maison d'édition créée en 1812 à Bordeaux par Jean-Baptiste Féret. Il s'agit de l'une des plus anciennes maisons d'édition française toujours en exercice (seules les Éditions Belin de 1777 seraient plus anciennes). L'ouvrage le plus connu reste le guide Bordeaux et ses vins, autrement appelé Le Féret ou Le Guide Féret.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ditions_F%C3%A9ret</t>
+          <t>Éditions_Féret</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,53 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jean-Baptiste Féret[2], son fondateur, est un jeune commis-représentant, originaire de Servigny[3] en Normandie. On sait peu de choses sur cet homme si ce n'est qu'il s'installe à Bordeaux dans les années 1810. Il fonde la Librairie en 1812 et en 1814 il reçoit la patente d'éditeur. La société devient Féret et fils en 1841. La librairie fut pendant longtemps une référence à Bordeaux. Située dans un bâtiment emblématique de Bordeaux dans la rue de Grassi, la librairie a marqué plusieurs générations de bordelais dont François Mauriac qui en parlera dans l'un de ses livres[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Baptiste Féret, son fondateur, est un jeune commis-représentant, originaire de Servigny en Normandie. On sait peu de choses sur cet homme si ce n'est qu'il s'installe à Bordeaux dans les années 1810. Il fonde la Librairie en 1812 et en 1814 il reçoit la patente d'éditeur. La société devient Féret et fils en 1841. La librairie fut pendant longtemps une référence à Bordeaux. Située dans un bâtiment emblématique de Bordeaux dans la rue de Grassi, la librairie a marqué plusieurs générations de bordelais dont François Mauriac qui en parlera dans l'un de ses livres.
 Du fait de son implantation bordelaise, la maison Féret publie de nombreux ouvrages sur le vin et la région bordelaise. En 1850, la publication en français par la maison Féret de l'ouvrage de Charles Cocks conduira à l’établissement du plus anciens guide de vin encore publié, il s'agit du Bordeaux et ses vins, autrement appelé le Guide Féret. Il reste dans l'histoire comme l'un des contributeurs importants de la renommée du classement des vins de 1855 et du succès des vins de Bordeaux à l'export. Véritable réussite commerciale autant que succès d'édition, ce titre est régulièrement mis à jour et publié par la même maison d'édition avec l'aide des professionnels du vin.
 En 1983, la librairie ferme ses portes mais la maison d'édition continue la publication du Guide Féret, de nouvelles collections sont créées. La maison d'édition se spécialise dans l'édition viticole.
 L'entreprise demeurera strictement familiale jusqu'en 1992 date à laquelle le dernier représentant de la famille Féret cède ses parts. La société change alors de main plusieurs fois.
 En 2019, les éditions Féret entament leur virage numérique tout en perpétuant l'activité historique dans le respect des valeurs de la plus ancienne maison d'édition indépendante de France.
 Aujourd'hui, Féret propose la solution digitale, Bordeaux et ses Vins, qui permet d'enrichir, de certifier et de diffuser internationalement les informations des vins. 
-Direction[5]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Éditions_Féret</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_F%C3%A9ret</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Direction[5]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1812 : Jean-Baptiste Féret
 1841 : Michel-Édouard Féret
 1868 : Édouard Féret
@@ -529,8 +579,43 @@
 1992 : Marc-Henri Lemay
 2002 : Bruno Boidron
 2019 : Stéphane Zittoun
-Emplacements de la librairie
-En tant que libraire, la société Féret a eu plusieurs emplacements successifs au cours de son histoire :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éditions_Féret</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_F%C3%A9ret</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Emplacements de la librairie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En tant que libraire, la société Féret a eu plusieurs emplacements successifs au cours de son histoire :
 1812 : Place de la bourse
 1818 : 3 cours du Chapeau-Rouge
 1822 : 7 allées de Tourny
@@ -541,34 +626,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89ditions_F%C3%A9ret</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éditions_Féret</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89ditions_F%C3%A9ret</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Collections
-Avec une vingtaine de titres publiés par an depuis 200 ans, le fond est particulièrement riche. Il est divisé en plusieurs collections ou thématiques :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec une vingtaine de titres publiés par an depuis 200 ans, le fond est particulièrement riche. Il est divisé en plusieurs collections ou thématiques :
 L'ampélologue
 Beaux livres du vin
 Guides de vin
@@ -583,7 +673,43 @@
 Précis de la vigne et du vin (Directeur : Olivier Antoine Geny)
 Témoignage et Romans
 Université
-Auteurs publiés (sélection)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éditions_Féret</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_F%C3%A9ret</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auteurs publiés (sélection)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jean-Pierre Xiradakis
 Jean-Pierre Gauffre
 Antoine Lebègue
